--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,19 +34,46 @@
     <t xml:space="preserve">Person</t>
   </si>
   <si>
-    <t xml:space="preserve">Generated test data</t>
+    <t xml:space="preserve">Create input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started module outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started flow diagram</t>
   </si>
   <si>
     <t xml:space="preserve">Complete</t>
   </si>
   <si>
-    <t xml:space="preserve">Adriean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defined module outline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicholas</t>
+    <t xml:space="preserve">Created PA report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote pseudo for Config.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote pseudo for Departments module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote pseudo for Individuals module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated input data</t>
   </si>
 </sst>
 </file>
@@ -63,7 +90,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,8 +158,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -191,14 +225,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -206,67 +240,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -285,35 +277,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -325,21 +293,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -353,11 +321,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -367,11 +335,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -379,6 +347,118 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Updated input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote pseudo for main.py</t>
   </si>
 </sst>
 </file>
@@ -90,6 +93,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,21 +297,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -321,7 +325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>45607</v>
       </c>
@@ -335,7 +339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45608</v>
       </c>
@@ -349,7 +353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45608</v>
       </c>
@@ -363,7 +367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45608</v>
       </c>
@@ -377,7 +381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45608</v>
       </c>
@@ -391,7 +395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>45608</v>
       </c>
@@ -405,7 +409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45608</v>
       </c>
@@ -419,7 +423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>45608</v>
       </c>
@@ -433,7 +437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>45609</v>
       </c>
@@ -459,6 +463,20 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -77,6 +77,36 @@
   </si>
   <si>
     <t xml:space="preserve">Wrote pseudo for main.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Config.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up dictionary for configs in Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on csv import methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on dataframe objects in Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on line graphs in Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on query functionality in Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on violin plots in Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned up Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested method functionality of Individuals.py</t>
   </si>
 </sst>
 </file>
@@ -297,10 +327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,6 +509,146 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -107,6 +107,81 @@
   </si>
   <si>
     <t xml:space="preserve">Tested method functionality of Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated methods for calculating fitness scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated method to view person fitness status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated outline of Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defined tasks for PA3 milestone in GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created functionality for vector plotting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created and updated Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Individuals.py and GitHub outlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated project diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created and updated Interface.py and Main.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on getSteps() for Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on getHrv() for Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on getFitnessScores() for Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on calcDays() for Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on generating department dataframes and statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Individuals.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up interface for individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up interface for departments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added config for probation fitness score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on calcAvgAge()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on calcAvgFitnessScore()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on writing statistics out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created all department histograms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on pickleSave() and pickleLoad()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defined work to be completed for next milestone in GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made miscellaneous fixes to code</t>
   </si>
 </sst>
 </file>
@@ -327,10 +402,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,6 +724,398 @@
         <v>13</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -182,6 +182,30 @@
   </si>
   <si>
     <t xml:space="preserve">Made miscellaneous fixes to code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added logging to methods of Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added probability methods to Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added unique value combinations/permutations to Departments.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added orthogonality vector to vector plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed bugs with loading pickle file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned up modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write project report (except user manual)</t>
   </si>
 </sst>
 </file>
@@ -402,10 +426,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1116,6 +1140,118 @@
         <v>6</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Doc/TaskProgresReport.xlsx
+++ b/Doc/TaskProgresReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t xml:space="preserve">Write project report (except user manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added query search interface to Interface.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added ability to add individuals to a department in Interface.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write user manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added ability to view department stats to Interface.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected decimal rounding for stat methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up interface for departments</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1252,6 +1270,104 @@
         <v>6</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
